--- a/biology/Histoire de la zoologie et de la botanique/Georges_Carrel/Georges_Carrel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Georges_Carrel/Georges_Carrel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges Carrel (né le 21 novembre 1800 à Châtillon et mort le 23 mai 1870 à Aoste) était un chanoine valdôtain qui donna une forte contribution au progrès économique et social de sa région.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Georges Carrel de Jean Pierre Joseph, « agricole », de Jean Jacques et de Marie Meynet[1] naquit le 21 novembre 1800 à Châtillon, et vit son enfance à Valtournenche, aux pieds du Cervin d'où sa famille paternelle est originaire. Il accomplit ses études au collège Saint-Bénin à Aoste. Il est consacré prêtre le 11 juin 1826, chanoine le 18 mai 1826 maître des cérémonies en 1838 puis vice-official de 1843 à 1859 et enfin prieur de la Collégiale de Saint-Ours d'Aoste le 24 août 1868. Il obtint une maîtrise en loi à l'Université de Turin le 8 juillet 1834. Il est fait chevalier de l'Ordre des Saints-Maurice-et-Lazare le 10 janvier 1865 et meurt le 23 mai 1870 à Aoste.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Georges Carrel de Jean Pierre Joseph, « agricole », de Jean Jacques et de Marie Meynet naquit le 21 novembre 1800 à Châtillon, et vit son enfance à Valtournenche, aux pieds du Cervin d'où sa famille paternelle est originaire. Il accomplit ses études au collège Saint-Bénin à Aoste. Il est consacré prêtre le 11 juin 1826, chanoine le 18 mai 1826 maître des cérémonies en 1838 puis vice-official de 1843 à 1859 et enfin prieur de la Collégiale de Saint-Ours d'Aoste le 24 août 1868. Il obtint une maîtrise en loi à l'Université de Turin le 8 juillet 1834. Il est fait chevalier de l'Ordre des Saints-Maurice-et-Lazare le 10 janvier 1865 et meurt le 23 mai 1870 à Aoste.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Apports au progrès scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il enseigna les sciences naturelles à Aoste. À partir de 1841, il collabora aux journaux aostois Feuille d'annonces d'Aoste, l'Indépendant et à la Feuille d'Aoste, et aussi aux périodiques suisses Gazette du Simplon et Bibliothèque universelle de Genève.
 Il fut parmi les membres fondateurs de l'Académie Saint-Anselme d'Aoste, créée le 29 mars 1855, qui avait pour but d'encourager les études religieuses et scientifiques, et la Société de la flore valdôtaine, en 1858, qui s'occupait de l'étude de la flore valdôtaine, ainsi que de la constitution d'un herbier.
@@ -585,7 +601,9 @@
           <t>En sa mémoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une plaque a été posée sur la place de l'église à Valtournenche le 30 juillet 1876 en son honneur, et la même année un bivouac sur le Grand Tournalin (situé entre le Valtournenche et le val d'Ayas) lui fut dédié.
 Le 19 septembre 1878, le projet de renommer le pic de Nona, la montagne surmontant Aoste, « Pic Carrel » fut lancé, mais il n'eut pas une suite. Son nom est rappelé par le Col Carrel, qui sépare le Mont Émilius du pic de Nona.
@@ -618,7 +636,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Voici les principaux ouvrages du chanoine Georges Carrel.
 Lettres à ma sœur sur l'introduction des mesures métriques dans le Duché d'Aoste, Imprimerie Lyboz, Aoste, 1850
@@ -655,7 +675,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Vallée d'Aoste
 Société de la flore valdôtaine
